--- a/biology/Botanique/Square_de_la_Raffinerie-Say/Square_de_la_Raffinerie-Say.xlsx
+++ b/biology/Botanique/Square_de_la_Raffinerie-Say/Square_de_la_Raffinerie-Say.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le square de la Raffinerie-Say est un espace vert du 13e arrondissement de Paris, en France[1]. 
+Le square de la Raffinerie-Say est un espace vert du 13e arrondissement de Paris, en France. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est accessible par le 147, boulevard Vincent-Auriol, la rue Yéo-Thomas et la rue Nationale.
 Il est desservi par la ligne 6 à la station Nationale.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom de la raffinerie de sucre Say fondée par Louis Say. La raffinerie était précisément située entre le boulevard Vincent-Auriol, la rue Jeanne-d'Arc, la rue Clisson et la rue Dunois (entrée principale 123 boulevard Vincent-Auriol).
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à l'emplacement de la raffinerie Say achetée en 1832 par Louis Say, le jardin est créé en 1976 sous le nom de « jardin de l'Îlot-4 », avant de prendre en 2006 le nom de « jardin de la Raffinerie-Say ».  
 D'une superficie totale de 5 400 m2, dont 180 m2 dédiés à une terrasse de détente, il est planté de pins maritimes et possède une aire de jeux pour les enfants.
